--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="32">
   <si>
     <t>Invoice No.</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>zxc</t>
+  </si>
+  <si>
+    <t>igor</t>
+  </si>
+  <si>
+    <t>2-oy moscow</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -433,7 +442,7 @@
     <col min="14" max="14" width="14.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="14.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -499,7 +508,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" ht="14.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +624,12 @@
       <c r="P3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -677,6 +690,180 @@
       <c r="P4" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44588</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8">
+        <v>44588</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A7">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44588</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
